--- a/src/modules/meet/ts/translation.xlsx
+++ b/src/modules/meet/ts/translation.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="137">
   <si>
     <t xml:space="preserve">code:</t>
   </si>
@@ -374,6 +374,63 @@
   </si>
   <si>
     <t xml:space="preserve">共有リンクを作成...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show fullscreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全屏显示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全屏顯示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전체 화면 표시</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全画面表示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">录制</t>
+  </si>
+  <si>
+    <t xml:space="preserve">錄製</t>
+  </si>
+  <si>
+    <t xml:space="preserve">녹음</t>
+  </si>
+  <si>
+    <t xml:space="preserve">録画</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">离开会议</t>
+  </si>
+  <si>
+    <t xml:space="preserve">離開會議</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미팅 나가기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会議を退出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exit fullscreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">退出全屏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전체 화면 종료</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全画面表示を終了</t>
   </si>
 </sst>
 </file>
@@ -456,12 +513,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -481,564 +542,819 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1f497d"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="eeece1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4f81bd"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="c0504d"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9bbb59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064a2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4bacc6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="f79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ff"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.41"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="1" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
